--- a/data/outputs/OR_altmetric/55.xlsx
+++ b/data/outputs/OR_altmetric/55.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE43"/>
+  <dimension ref="A1:CF43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1270,6 +1278,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1784,6 +1798,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2031,6 +2048,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2278,6 +2298,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2533,6 +2556,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2782,6 +2808,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3027,6 +3056,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3282,6 +3314,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3533,6 +3568,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3802,6 +3840,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4055,6 +4096,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4306,6 +4350,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4565,6 +4612,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4828,6 +4878,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5097,6 +5150,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5354,6 +5410,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5605,6 +5664,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5856,6 +5918,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6107,6 +6172,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6358,6 +6426,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6611,6 +6682,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,6 +6930,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7107,6 +7184,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7362,6 +7442,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7611,6 +7694,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7858,6 +7944,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8117,6 +8206,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8372,6 +8464,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8619,6 +8714,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8878,6 +8976,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9131,6 +9232,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9400,6 +9504,9 @@
         <v>0</v>
       </c>
       <c r="CE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9641,6 +9748,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9916,6 +10026,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10189,6 +10302,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10426,6 +10542,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10679,6 +10798,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10928,6 +11050,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11171,6 +11296,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11408,6 +11536,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
